--- a/src/DE-PARA_FUNCOES.xlsx
+++ b/src/DE-PARA_FUNCOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mar21\Documents\Trabalho\CGINF\Projetos_R\Etnia_genero\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717DDABD-C69C-453D-971C-5367FF990C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB505E3-D016-4264-BAE8-20F3168D97A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-4245" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:D276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/DE-PARA_FUNCOES.xlsx
+++ b/src/DE-PARA_FUNCOES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mar21\Documents\Trabalho\CGINF\Projetos_R\Etnia_genero\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB505E3-D016-4264-BAE8-20F3168D97A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C0CAFE-4E47-4694-8D32-5EF15194794A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-4245" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D59E970-15E9-4C4B-9F85-1F37A33AB9F9}">
   <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4516,8 +4516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6456B094-B60E-457A-A7BB-75CAD92D31B3}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
